--- a/medicine/Enfance/Ransom_Riggs/Ransom_Riggs.xlsx
+++ b/medicine/Enfance/Ransom_Riggs/Ransom_Riggs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ransom Riggs, né le 3 février 1979 au Maryland, est un écrivain américain de fantasy, principalement connu pour être l'auteur du roman Miss Peregrine et les Enfants particuliers.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ransom Riggs est né le 3 février 1979 dans une ferme vieille de 200 ans dans les régions rurales du Maryland, où, à l'âge de cinq ans, il a décidé qu'il voulait exercer la profession d'agriculteur car pour lui cela signifiait conduire un tracteur. Puis, en partie à cause de cette ambition, sa mère est partie vivre en Floride, où il y avait relativement peu de fermes, mais beaucoup de personnes âgées et peu de choses à faire pour les enfants. C'est précisément pour cela, parce qu'Internet n'existait pas et qu'il n'y avait que douze chaînes de télévision à l'époque, qu'il a commencé à écrire ses propres histoires pour s'amuser. 
-Miss Peregrine et les Enfants particuliers a atteint la première place de la liste des best-sellers du New York Times dans la catégorie livres pour enfants[1] et est resté  63 semaines sur cette liste[2].
-Il est l'époux de l'auteure irano-américaine, Tahereh Mafi[3]. Ils ont une fille, Layla, née le 30 mai 2017[4].
+Miss Peregrine et les Enfants particuliers a atteint la première place de la liste des best-sellers du New York Times dans la catégorie livres pour enfants et est resté  63 semaines sur cette liste.
+Il est l'époux de l'auteure irano-américaine, Tahereh Mafi. Ils ont une fille, Layla, née le 30 mai 2017.
 </t>
         </is>
       </c>
@@ -546,10 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Miss Peregrine et les Enfants particuliers
-Cette série a la particularité d'avoir été inspirée par d'anciennes photographies en noir et blanc (comportant souvent des trucages d'époque, avec quelques retouches numériques), qui jalonnent le texte pour en illustrer des moments-clés (rencontre avec tel ou tel personnage, arrivée dans tel ou tel lieu).
-Romans
-Miss Peregrine et les Enfants particuliers (Miss Peregrine's Home for Peculiar Children, 2011) / trad. Sidonie Van den Dries - Grand prix de l'Imaginaire 2015
+          <t>Série Miss Peregrine et les Enfants particuliers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série a la particularité d'avoir été inspirée par d'anciennes photographies en noir et blanc (comportant souvent des trucages d'époque, avec quelques retouches numériques), qui jalonnent le texte pour en illustrer des moments-clés (rencontre avec tel ou tel personnage, arrivée dans tel ou tel lieu).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Miss Peregrine et les Enfants particuliers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Miss Peregrine et les Enfants particuliers (Miss Peregrine's Home for Peculiar Children, 2011) / trad. Sidonie Van den Dries - Grand prix de l'Imaginaire 2015
 Montrouge : Bayard jeunesse, 2012, 438 p.  (ISBN 978-2-7470-3791-4)
 Montrouge : Bayard jeunesse, 2016, 443 p.  (ISBN 978-2-7470-7223-6)
 Paris : Le Livre de poche jeunesse, 2016, 439 p.  (ISBN 978-2-01-911015-4)
@@ -568,57 +626,207 @@
 Paris : Le Livre de poche jeunesse, 2021, 416 p.  (ISBN 978-2-01-716438-8)
 Les Désolations de l'Arpent du Diable (The Desolations of Devil’s Acre, 2021) / trad. Sidonie Van den Dries
 Montrouge : Bayard jeunesse, 2021, 600 p.  (ISBN 978-2-7470-8635-6)
-Paris : Le Livre de poche jeunesse, 2022, 656 p.  (ISBN 978-2-01-720226-4)
-Version audio
-Miss Peregrine et les enfants particuliers / lu par Benjamin Jungers. Paris : Audiolib, 2017. 1 disque compact audio (8 h 41 min). Format MP3.  (ISBN 978-2-36762-312-2)
+Paris : Le Livre de poche jeunesse, 2022, 656 p.  (ISBN 978-2-01-720226-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Miss Peregrine et les Enfants particuliers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Version audio</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Miss Peregrine et les enfants particuliers / lu par Benjamin Jungers. Paris : Audiolib, 2017. 1 disque compact audio (8 h 41 min). Format MP3.  (ISBN 978-2-36762-312-2)
 Hollow city / lu par Benjamin Jungers. Paris : Audiolib, 2017. 1 disque compact audio (12h). Format MP3.  (ISBN 978-2-36762-554-6)
 La Bibliothèque des âmes / lu par Benjamin Jungers. Paris : Audiolib, 2018. 1 disque compact audio (11h41). Format MP3.  (ISBN 978-2-36762-561-4)
 La Carte des jours / lu par Benjamin Jungers. Paris : Audiolib, 2019. 1 disque compact audio (12h43). Format MP3.
-La Conférence des oiseaux / lu par Benjamin Jungers. Paris : Audiolib, 2020. 1 disque compact audio (8h25).
-Bandes dessinées
-Miss Peregrine et les enfants particuliers / illustrations Cassandra Jean ; trad. Sidonie Van den Dries.
+La Conférence des oiseaux / lu par Benjamin Jungers. Paris : Audiolib, 2020. 1 disque compact audio (8h25).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Miss Peregrine et les Enfants particuliers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Miss Peregrine et les enfants particuliers / illustrations Cassandra Jean ; trad. Sidonie Van den Dries.
 Toulouse : BD Kids, 2014, 256 p.  (ISBN 978-2-7470-5169-9)
 Montrouge : Bayard jeunesse, 2016, 256 p.  (ISBN 978-2-7470-5935-0)
 Hollow city / illustrations Cassandra Jean ; trad. Sidonie Van den Dries.
 Toulouse : BD Kids, 2017, 256 p.  (ISBN 978-2-7470-8284-6)
-Toulouse : BD Kids, 2017, 272 p.  (ISBN 978-2-7470-7735-4)
-Livres autour de la série
-Le Journal de Miss Peregrine et les enfants particuliers (Miss Peregrine's Journal for Peculiar Children, 2016) / trad. Sidonie Van den Dries. Montrouge : Bayard jeunesse, 2016, 192 p.  (ISBN 978-2-7470-7229-8)
+Toulouse : BD Kids, 2017, 272 p.  (ISBN 978-2-7470-7735-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Miss Peregrine et les Enfants particuliers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Livres autour de la série</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Journal de Miss Peregrine et les enfants particuliers (Miss Peregrine's Journal for Peculiar Children, 2016) / trad. Sidonie Van den Dries. Montrouge : Bayard jeunesse, 2016, 192 p.  (ISBN 978-2-7470-7229-8)
 Contes des particuliers (Tales of the Peculiar, 2016) / Ransom Riggs ; ill. par Andrew Davidson ; trad. Sidonie Van den Dries. Montrouge : Bayard jeunesse, 2016, 176 p.  (ISBN 978-2-7470-7266-3). Rééd. Paris : Le Livre de poche jeunesse, 2018, 215 p.   (ISBN 978-2-01-703827-6)
-Tout l'art de Miss Peregrine et les enfants particuliers / introduction de Tim Burton ; avant-propos de Ransom Riggs ; texte de Leah Gallo. Paris : Huginn &amp; Muninn, coll. "Ciné-Télé", 2016, 192 p.  (ISBN 978-2-36480-474-6)
-Autres ouvrages
-La Méthode Sherlock Holmes, Ynnis, 2021 ((en) The Sherlock Holmes Handbook: The Methods and Mysteries of the World's Greatest Detective, 2009)
+Tout l'art de Miss Peregrine et les enfants particuliers / introduction de Tim Burton ; avant-propos de Ransom Riggs ; texte de Leah Gallo. Paris : Huginn &amp; Muninn, coll. "Ciné-Télé", 2016, 192 p.  (ISBN 978-2-36480-474-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Méthode Sherlock Holmes, Ynnis, 2021 ((en) The Sherlock Holmes Handbook: The Methods and Mysteries of the World's Greatest Detective, 2009)
 (en) Talking Pictures: Images and Messages Rescued from the Past, 2012</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Ransom_Riggs</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ransom_Riggs</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ransom Riggs a réalisé et écrit quelques courts-métrages visibles sur sa chaîne Youtube[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ransom Riggs a réalisé et écrit quelques courts-métrages visibles sur sa chaîne Youtube.
 Son œuvre a été adaptée dans Miss Peregrine et les Enfants particuliers de Tim Burton, sorti début octobre 2016.
 </t>
         </is>
